--- a/docs/QA_QC Validation Criteria.xlsx
+++ b/docs/QA_QC Validation Criteria.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
   <si>
     <t>Error Severity Type 
 (DVM_ERROR_TYPES
@@ -117,13 +117,7 @@
     <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) does not have a Standard Survey Name defined for it</t>
   </si>
   <si>
-    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE])  has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed</t>
-  </si>
-  <si>
     <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has "(copy)" in the Cruise Name, this should be renamed</t>
-  </si>
-  <si>
-    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE])  that has "(copy)" in the Leg Name, this should be renamed</t>
   </si>
   <si>
     <t>Both the Cruise Standard Survey Name fields were not populated, one or the other must be specified</t>
@@ -231,16 +225,73 @@
     <t xml:space="preserve">The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid length ( &gt; 280) days based on the date range ([CRUISE_LEN_DAYS] days) </t>
   </si>
   <si>
-    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])</t>
-  </si>
-  <si>
-    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) has an abnormally high number ( &gt; 30) of Days at Sea ([LEG_DAS])</t>
-  </si>
-  <si>
     <t>There are two legs for the same Cruise ([CRUISE_NAME1]) whose leg dates overlap; Cruise Leg 1: (Leg Name: [LEG_NAME1], Vessel: [VESSEL_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Leg Name: [LEG_NAME2], Vessel: [VESSEL_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])</t>
   </si>
   <si>
     <t>There are two legs for the same Vessel ([VESSEL_NAME1]) whose leg dates overlap; Leg 1: (Cruise: [CRUISE_NAME1], Leg Name: [LEG_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Cruise: [CRUISE_NAME2], Leg Name: [LEG_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])</t>
+  </si>
+  <si>
+    <t>MISS_PRIM_SVY_CAT_YN</t>
+  </si>
+  <si>
+    <t>MISS_GEAR_YN</t>
+  </si>
+  <si>
+    <t>Missing Leg Gear</t>
+  </si>
+  <si>
+    <t>Missing Cruise Primary Survey Category</t>
+  </si>
+  <si>
+    <t>The Cruise does not have a Primary Survey Category defined for it</t>
+  </si>
+  <si>
+    <t>The Leg does not have any gear defined for it</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) does not have at least one Primary Survey Category defined for it</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that does not have at least one type of Gear defined for it</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an abnormally high number ( &gt; 30) of Days at Sea ([LEG_DAS])</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has "(copy)" in the Leg Name, this should be renamed</t>
+  </si>
+  <si>
+    <t>Error/Warning</t>
+  </si>
+  <si>
+    <t>INV_CRUISE_NAME_YN</t>
+  </si>
+  <si>
+    <t>INV_CRUISE_NAME_FY_YN</t>
+  </si>
+  <si>
+    <t>Invalid Cruise Name</t>
+  </si>
+  <si>
+    <t>Mismatched Cruise Name and Fiscal Year</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value ([CRUISE_NAME_FY]) does not match the truncated Cruise's Fiscal Year value ([CRUISE_FISC_YEAR_TRUNC])</t>
+  </si>
+  <si>
+    <t>The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg's start date</t>
   </si>
 </sst>
 </file>
@@ -291,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -320,6 +371,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,9 +732,9 @@
   </sheetPr>
   <dimension ref="A1:W888"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J14"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -706,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -727,15 +781,17 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>40</v>
+      <c r="M1" s="4" t="s">
+        <v>79</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -747,42 +803,40 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
-      <c r="C2" s="7">
-        <v>20</v>
-      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
+      <c r="F2" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="10" t="str">
-        <f t="shared" ref="J2:J3" si="0">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F2, "'", "''"), "', '", SUBSTITUTE(E2, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B2, "'), '", D2, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A2, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I2, "'), 'Y', '", SUBSTITUTE(G2, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Cruise Leg Overlap', 'There are two legs for the same Cruise ([CRUISE_NAME1]) whose leg dates overlap; Cruise Leg 1: (Leg Name: [LEG_NAME1], Vessel: [VESSEL_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Leg Name: [LEG_NAME2], Vessel: [VESSEL_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'CRUISE_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same cruise have overlapping start/end dates, two legs for the same cruise cannot occur concurrently');</v>
+        <f t="shared" ref="J2:J16" si="0">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F2, "'", "''"), "', '", SUBSTITUTE(E2, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B2, "'), '", D2, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A2, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I2, "'), 'Y', '", SUBSTITUTE(G2, "'", "''"), "');")</f>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Abnormally High Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an abnormally high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 120 days');</v>
       </c>
-      <c r="K2" s="10" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B2, "'", "''"), "', 'Y', ", C2, ");")</f>
-        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_OVERLAP_V', 'Y', 20);</v>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="str">
+        <f>IF(A2 = "WARN", "Warning", "Error")</f>
+        <v>Warning</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
@@ -794,25 +848,25 @@
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
     </row>
-    <row r="3" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
+      <c r="F3" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
@@ -820,11 +874,14 @@
       </c>
       <c r="J3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Vessel Leg Overlap', 'There are two legs for the same Vessel ([VESSEL_NAME1]) whose leg dates overlap; Leg 1: (Cruise: [CRUISE_NAME1], Leg Name: [LEG_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Cruise: [CRUISE_NAME2], Leg Name: [LEG_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'VESSEL_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same vessel have overlapping start/end dates, two legs for the same vessel cannot occur concurrently');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Abnormally High Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is abnormally long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 160 days');</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7" t="str">
+        <f t="shared" ref="M3:M18" si="1">IF(A3 = "WARN", "Warning", "Error")</f>
+        <v>Warning</v>
+      </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -838,40 +895,38 @@
     </row>
     <row r="4" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7">
-        <v>5</v>
-      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="10" t="str">
-        <f>CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F4, "'", "''"), "', '", SUBSTITUTE(E4, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B4, "'), '", D4, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A4, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I4, "'), 'Y', '", SUBSTITUTE(G4, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Missing Standard Survey Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) does not have a Standard Survey Name defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_STD_SVY_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Both the Cruise Standard Survey Name fields were not populated, one or the other must be specified');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has "(copy)" in the Cruise Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
       </c>
-      <c r="K4" s="10" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B4, "'", "''"), "', 'Y', ", C4, ");")</f>
-        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_CRUISE_V', 'Y', 5);</v>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
       </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -885,35 +940,38 @@
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
+      <c r="F5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="10" t="str">
-        <f>CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F5, "'", "''"), "', '", SUBSTITUTE(E5, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B5, "'), '", D5, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A5, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I5, "'), 'Y', '", SUBSTITUTE(G5, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has "(copy)" in the Cruise Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid number ( &gt; 240) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 240 days');</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -927,35 +985,38 @@
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="10" t="str">
-        <f t="shared" ref="J6:J11" si="1">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F6, "'", "''"), "', '", SUBSTITUTE(E6, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B6, "'), '", D6, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A6, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I6, "'), 'Y', '", SUBSTITUTE(G6, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Abnormally High Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an abnormally high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 120 days');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid length ( &gt; 280) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 280 days');</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -969,35 +1030,38 @@
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>52</v>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>60</v>
+      <c r="F7" s="5" t="s">
+        <v>70</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>46</v>
+      <c r="G7" s="5" t="s">
+        <v>71</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Missing Cruise Primary Survey Category', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) does not have at least one Primary Survey Category defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_PRIM_SVY_CAT_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise does not have a Primary Survey Category defined for it');</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid number ( &gt; 240) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 240 days');</v>
+        <v>Warning</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1011,35 +1075,43 @@
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
       <c r="D8" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>61</v>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Missing Standard Survey Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) does not have a Standard Survey Name defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_STD_SVY_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Both the Cruise Standard Survey Name fields were not populated, one or the other must be specified');</v>
+      </c>
+      <c r="K8" s="10" t="str">
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B8, "'", "''"), "', 'Y', ", C8, ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_CRUISE_V', 'Y', 5);</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Abnormally High Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is abnormally long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 160 days');</v>
+        <v>Error</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1051,37 +1123,45 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7">
+        <v>15</v>
+      </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>62</v>
+      <c r="F9" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Alias Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_ALIAS_V'), 'INV_LEG_ALIAS_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Alias Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+      </c>
+      <c r="K9" s="10" t="str">
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B9, "'", "''"), "', 'Y', ", C9, ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_ALIAS_V', 'Y', 15);</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid length ( &gt; 280) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 280 days');</v>
+        <v>Error</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
@@ -1093,37 +1173,45 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7">
+        <v>20</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>63</v>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Cruise Leg Overlap', 'There are two legs for the same Cruise ([CRUISE_NAME1]) whose leg dates overlap; Cruise Leg 1: (Leg Name: [LEG_NAME1], Vessel: [VESSEL_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Leg Name: [LEG_NAME2], Vessel: [VESSEL_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'CRUISE_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same cruise have overlapping start/end dates, two legs for the same cruise cannot occur concurrently');</v>
+      </c>
+      <c r="K10" s="10" t="str">
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B10, "'", "''"), "', 'Y', ", C10, ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_OVERLAP_V', 'Y', 20);</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Abnormally High Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) has an abnormally high number ( &gt; 30) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'WARN_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 30 days');</v>
+        <v>Error</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -1135,37 +1223,40 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>64</v>
+      <c r="F11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'ERR_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 90 days');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Vessel Leg Overlap', 'There are two legs for the same Vessel ([VESSEL_NAME1]) whose leg dates overlap; Leg 1: (Cruise: [CRUISE_NAME1], Leg Name: [LEG_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Cruise: [CRUISE_NAME2], Leg Name: [LEG_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'VESSEL_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same vessel have overlapping start/end dates, two legs for the same vessel cannot occur concurrently');</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="M11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1179,40 +1270,38 @@
     </row>
     <row r="12" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7">
-        <v>10</v>
-      </c>
+      <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>16</v>
+      <c r="F12" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="10" t="str">
-        <f>CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F12, "'", "''"), "', '", SUBSTITUTE(E12, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B12, "'), '", D12, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A12, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I12, "'), 'Y', '", SUBSTITUTE(G12, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE])  that has "(copy)" in the Leg Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Abnormally High Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an abnormally high number ( &gt; 30) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'WARN_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 30 days');</v>
       </c>
-      <c r="K12" s="10" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B12, "'", "''"), "', 'Y', ", C12, ");")</f>
-        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_V', 'Y', 10);</v>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Warning</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -1224,37 +1313,45 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="7">
+        <v>10</v>
+      </c>
       <c r="D13" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="10" t="str">
-        <f>CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F13, "'", "''"), "', '", SUBSTITUTE(E13, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B13, "'), '", D13, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A13, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I13, "'), 'Y', '", SUBSTITUTE(G13, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Dates', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that are invalid, the Start Date occurs after the End Date', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_DATES_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg''s Start Date occurs after the End Date');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has "(copy)" in the Leg Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
       </c>
-      <c r="K13" s="7"/>
+      <c r="K13" s="10" t="str">
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B13, "'", "''"), "', 'Y', ", C13, ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_V', 'Y', 10);</v>
+      </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
@@ -1266,42 +1363,40 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
     </row>
-    <row r="14" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>15</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="10" t="str">
-        <f>CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F14, "'", "''"), "', '", SUBSTITUTE(E14, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B14, "'), '", D14, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A14, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I14, "'), 'Y', '", SUBSTITUTE(G14, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Alias Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE])  has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_ALIAS_V'), 'INV_LEG_ALIAS_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Alias Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Dates', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that are invalid, the Start Date occurs after the End Date', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_DATES_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg''s Start Date occurs after the End Date');</v>
       </c>
-      <c r="K14" s="10" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B14, "'", "''"), "', 'Y', ", C14, ");")</f>
-        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_ALIAS_V', 'Y', 15);</v>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
@@ -1313,20 +1408,40 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
     </row>
-    <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+    <row r="15" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'ERR_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 90 days');</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1338,20 +1453,40 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Missing Leg Gear', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that does not have at least one type of Gear defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'MISS_GEAR_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg does not have any gear defined for it');</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>Warning</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1363,20 +1498,40 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="5"/>
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="I17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="10" t="str">
+        <f t="shared" ref="J17:J18" si="2">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F17, "'", "''"), "', '", SUBSTITUTE(E17, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B17, "'), '", D17, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A17, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I17, "'), 'Y', '", SUBSTITUTE(G17, "'", "''"), "');")</f>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero');</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1388,20 +1543,40 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="18" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="5"/>
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="I18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Mismatched Cruise Name and Fiscal Year', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value ([CRUISE_NAME_FY]) does not match the truncated Cruise''s Fiscal Year value ([CRUISE_FISC_YEAR_TRUNC])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_FY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg''s start date');</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>Error</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1418,7 +1593,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="1"/>
       <c r="G19" s="5"/>
       <c r="H19" s="1"/>
@@ -1443,7 +1618,7 @@
       <c r="B20" s="1"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="1"/>
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
@@ -1468,7 +1643,7 @@
       <c r="B21" s="1"/>
       <c r="C21" s="5"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="1"/>
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
@@ -1518,7 +1693,7 @@
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="1"/>
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
@@ -1543,7 +1718,7 @@
       <c r="B24" s="1"/>
       <c r="C24" s="5"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="1"/>
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
@@ -1568,7 +1743,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="1"/>
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
@@ -1593,7 +1768,7 @@
       <c r="B26" s="1"/>
       <c r="C26" s="5"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="1"/>
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
@@ -1618,7 +1793,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="5"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="1"/>
       <c r="G27" s="5"/>
       <c r="H27" s="1"/>
@@ -1643,7 +1818,7 @@
       <c r="B28" s="1"/>
       <c r="C28" s="5"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="1"/>
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
@@ -1668,7 +1843,7 @@
       <c r="B29" s="1"/>
       <c r="C29" s="5"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="1"/>
       <c r="G29" s="5"/>
       <c r="H29" s="1"/>
@@ -1693,7 +1868,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="5"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="1"/>
       <c r="G30" s="5"/>
       <c r="H30" s="1"/>
@@ -1718,7 +1893,7 @@
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="1"/>
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
@@ -1743,7 +1918,7 @@
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="1"/>
       <c r="G32" s="5"/>
       <c r="H32" s="1"/>
@@ -1768,7 +1943,7 @@
       <c r="B33" s="1"/>
       <c r="C33" s="5"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="1"/>
       <c r="G33" s="5"/>
       <c r="H33" s="1"/>
@@ -1793,7 +1968,7 @@
       <c r="B34" s="1"/>
       <c r="C34" s="5"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="1"/>
       <c r="G34" s="5"/>
       <c r="H34" s="1"/>
@@ -1818,7 +1993,7 @@
       <c r="B35" s="1"/>
       <c r="C35" s="5"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="1"/>
       <c r="G35" s="5"/>
       <c r="H35" s="1"/>
@@ -1843,7 +2018,7 @@
       <c r="B36" s="1"/>
       <c r="C36" s="5"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="1"/>
       <c r="G36" s="5"/>
       <c r="H36" s="1"/>
@@ -1868,7 +2043,7 @@
       <c r="B37" s="1"/>
       <c r="C37" s="5"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="1"/>
       <c r="G37" s="5"/>
       <c r="H37" s="1"/>
@@ -1893,7 +2068,7 @@
       <c r="B38" s="1"/>
       <c r="C38" s="5"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="1"/>
       <c r="G38" s="5"/>
       <c r="H38" s="1"/>
@@ -23164,6 +23339,10 @@
       <c r="W888" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A2:L16">
+    <sortCondition ref="B2:B16"/>
+    <sortCondition ref="F2:F16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/docs/QA_QC Validation Criteria.xlsx
+++ b/docs/QA_QC Validation Criteria.xlsx
@@ -192,28 +192,13 @@
     <t>ERR_LEG_DAS_YN</t>
   </si>
   <si>
-    <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an abnormally high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])</t>
-  </si>
-  <si>
     <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid number ( &gt; 240) of Days at Sea ([CRUISE_DAS])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is abnormally long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) </t>
-  </si>
-  <si>
-    <t>Abnormally High Cruise Days at Sea</t>
   </si>
   <si>
     <t>Invalid Cruise Days at Sea</t>
   </si>
   <si>
-    <t>Abnormally High Cruise Length</t>
-  </si>
-  <si>
     <t>Invalid Cruise Length</t>
-  </si>
-  <si>
-    <t>Abnormally High Leg Days at Sea</t>
   </si>
   <si>
     <t>Invalid Leg Days at Sea</t>
@@ -258,9 +243,6 @@
     <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])</t>
   </si>
   <si>
-    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an abnormally high number ( &gt; 30) of Days at Sea ([LEG_DAS])</t>
-  </si>
-  <si>
     <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed</t>
   </si>
   <si>
@@ -282,16 +264,34 @@
     <t>Mismatched Cruise Name and Fiscal Year</t>
   </si>
   <si>
-    <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
-  </si>
-  <si>
     <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value ([CRUISE_NAME_FY]) does not match the truncated Cruise's Fiscal Year value ([CRUISE_FISC_YEAR_TRUNC])</t>
   </si>
   <si>
-    <t>The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+    <t>The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg's start date</t>
   </si>
   <si>
-    <t>The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg's start date</t>
+    <t>The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero</t>
+  </si>
+  <si>
+    <t>Unusually High Cruise Days at Sea</t>
+  </si>
+  <si>
+    <t>Unusually High Cruise Length</t>
+  </si>
+  <si>
+    <t>Unusually High Leg Days at Sea</t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an unusually high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is unusually long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) </t>
+  </si>
+  <si>
+    <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an unusually high number ( &gt; 30) of Days at Sea ([LEG_DAS])</t>
   </si>
 </sst>
 </file>
@@ -316,7 +316,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,6 +326,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -373,6 +379,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,9 +747,9 @@
   </sheetPr>
   <dimension ref="A1:W888"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J2:J18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -790,7 +805,7 @@
         <v>39</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -815,10 +830,10 @@
         <v>48</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>42</v>
@@ -829,7 +844,7 @@
       </c>
       <c r="J2" s="10" t="str">
         <f t="shared" ref="J2:J16" si="0">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F2, "'", "''"), "', '", SUBSTITUTE(E2, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B2, "'), '", D2, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A2, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I2, "'), 'Y', '", SUBSTITUTE(G2, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Abnormally High Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an abnormally high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 120 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Unusually High Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an unusually high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 120 days');</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -860,10 +875,10 @@
         <v>51</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>45</v>
@@ -874,7 +889,7 @@
       </c>
       <c r="J3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Abnormally High Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is abnormally long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 160 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Unusually High Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is unusually long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 160 days');</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -907,7 +922,7 @@
       <c r="E4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -950,10 +965,10 @@
         <v>50</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>44</v>
@@ -995,10 +1010,10 @@
         <v>52</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>46</v>
@@ -1037,16 +1052,16 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>70</v>
+      <c r="F7" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="7" t="s">
@@ -1089,7 +1104,7 @@
       <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -1137,9 +1152,9 @@
         <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="8" t="s">
@@ -1187,9 +1202,9 @@
         <v>10</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
@@ -1235,9 +1250,9 @@
         <v>11</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="8" t="s">
@@ -1280,10 +1295,10 @@
         <v>49</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>43</v>
@@ -1294,7 +1309,7 @@
       </c>
       <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Abnormally High Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an abnormally high number ( &gt; 30) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'WARN_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 30 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Unusually High Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an unusually high number ( &gt; 30) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'WARN_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 30 days');</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1313,7 +1328,7 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -1327,9 +1342,9 @@
         <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -1375,9 +1390,9 @@
         <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="12" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="8" t="s">
@@ -1420,10 +1435,10 @@
         <v>53</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>62</v>
+      <c r="F15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>47</v>
@@ -1462,16 +1477,16 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="F16" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="G16" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="7" t="s">
@@ -1498,7 +1513,7 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -1507,16 +1522,16 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>82</v>
+      <c r="F17" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="7" t="s">
@@ -1524,7 +1539,7 @@
       </c>
       <c r="J17" s="10" t="str">
         <f t="shared" ref="J17:J18" si="2">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F17, "'", "''"), "', '", SUBSTITUTE(E17, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B17, "'), '", D17, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A17, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I17, "'), 'Y', '", SUBSTITUTE(G17, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero');</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1552,16 +1567,16 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="7" t="s">

--- a/docs/QA_QC Validation Criteria.xlsx
+++ b/docs/QA_QC Validation Criteria.xlsx
@@ -153,9 +153,6 @@
     <t>QC Object Sort Order</t>
   </si>
   <si>
-    <t>FATAL</t>
-  </si>
-  <si>
     <t>Cruise is too long (DAS based on start and end dates) &gt; 120 days</t>
   </si>
   <si>
@@ -292,6 +289,9 @@
   </si>
   <si>
     <t>The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an unusually high number ( &gt; 30) of Days at Sea ([LEG_DAS])</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -747,9 +747,9 @@
   </sheetPr>
   <dimension ref="A1:W888"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -805,7 +805,7 @@
         <v>39</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -827,16 +827,16 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
@@ -872,16 +872,16 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
@@ -910,7 +910,7 @@
     </row>
     <row r="4" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>19</v>
@@ -934,7 +934,7 @@
       </c>
       <c r="J4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has "(copy)" in the Cruise Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has "(copy)" in the Cruise Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -955,23 +955,23 @@
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
@@ -979,7 +979,7 @@
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid number ( &gt; 240) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 240 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid number ( &gt; 240) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 240 days');</v>
       </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -1000,23 +1000,23 @@
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7" t="s">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid length ( &gt; 280) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 280 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid length ( &gt; 280) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 280 days');</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -1052,16 +1052,16 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="7" t="s">
@@ -1090,7 +1090,7 @@
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>19</v>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Missing Standard Survey Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) does not have a Standard Survey Name defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_STD_SVY_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Both the Cruise Standard Survey Name fields were not populated, one or the other must be specified');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Missing Standard Survey Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) does not have a Standard Survey Name defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_STD_SVY_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Both the Cruise Standard Survey Name fields were not populated, one or the other must be specified');</v>
       </c>
       <c r="K8" s="10" t="str">
         <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B8, "'", "''"), "', 'Y', ", C8, ");")</f>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="9" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>23</v>
@@ -1152,7 +1152,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>17</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Alias Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_ALIAS_V'), 'INV_LEG_ALIAS_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Alias Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Alias Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_ALIAS_V'), 'INV_LEG_ALIAS_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Alias Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
       </c>
       <c r="K9" s="10" t="str">
         <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B9, "'", "''"), "', 'Y', ", C9, ");")</f>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="10" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>9</v>
@@ -1202,7 +1202,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>12</v>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Cruise Leg Overlap', 'There are two legs for the same Cruise ([CRUISE_NAME1]) whose leg dates overlap; Cruise Leg 1: (Leg Name: [LEG_NAME1], Vessel: [VESSEL_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Leg Name: [LEG_NAME2], Vessel: [VESSEL_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'CRUISE_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same cruise have overlapping start/end dates, two legs for the same cruise cannot occur concurrently');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Cruise Leg Overlap', 'There are two legs for the same Cruise ([CRUISE_NAME1]) whose leg dates overlap; Cruise Leg 1: (Leg Name: [LEG_NAME1], Vessel: [VESSEL_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Leg Name: [LEG_NAME2], Vessel: [VESSEL_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'CRUISE_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same cruise have overlapping start/end dates, two legs for the same cruise cannot occur concurrently');</v>
       </c>
       <c r="K10" s="10" t="str">
         <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B10, "'", "''"), "', 'Y', ", C10, ");")</f>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="11" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -1250,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>13</v>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Vessel Leg Overlap', 'There are two legs for the same Vessel ([VESSEL_NAME1]) whose leg dates overlap; Leg 1: (Cruise: [CRUISE_NAME1], Leg Name: [LEG_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Cruise: [CRUISE_NAME2], Leg Name: [LEG_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'VESSEL_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same vessel have overlapping start/end dates, two legs for the same vessel cannot occur concurrently');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Vessel Leg Overlap', 'There are two legs for the same Vessel ([VESSEL_NAME1]) whose leg dates overlap; Leg 1: (Cruise: [CRUISE_NAME1], Leg Name: [LEG_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Cruise: [CRUISE_NAME2], Leg Name: [LEG_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'VESSEL_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same vessel have overlapping start/end dates, two legs for the same vessel cannot occur concurrently');</v>
       </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -1292,16 +1292,16 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="s">
@@ -1330,7 +1330,7 @@
     </row>
     <row r="13" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>18</v>
@@ -1342,7 +1342,7 @@
         <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>16</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="J13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has "(copy)" in the Leg Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has "(copy)" in the Leg Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
       </c>
       <c r="K13" s="10" t="str">
         <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B13, "'", "''"), "', 'Y', ", C13, ");")</f>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="14" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -1390,7 +1390,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>21</v>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="J14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Dates', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that are invalid, the Start Date occurs after the End Date', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_DATES_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg''s Start Date occurs after the End Date');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Dates', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that are invalid, the Start Date occurs after the End Date', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_DATES_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg''s Start Date occurs after the End Date');</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1425,23 +1425,23 @@
     </row>
     <row r="15" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7" t="s">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="J15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'ERR_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 90 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'ERR_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 90 days');</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1477,16 +1477,16 @@
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="G16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="7" t="s">
@@ -1515,23 +1515,23 @@
     </row>
     <row r="17" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="7" t="s">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="J17" s="10" t="str">
         <f t="shared" ref="J17:J18" si="2">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F17, "'", "''"), "', '", SUBSTITUTE(E17, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B17, "'), '", D17, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A17, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I17, "'), 'Y', '", SUBSTITUTE(G17, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero');</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1560,23 +1560,23 @@
     </row>
     <row r="18" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="7" t="s">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="J18" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Mismatched Cruise Name and Fiscal Year', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value ([CRUISE_NAME_FY]) does not match the truncated Cruise''s Fiscal Year value ([CRUISE_FISC_YEAR_TRUNC])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_FY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'FATAL'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg''s start date');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Mismatched Cruise Name and Fiscal Year', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value ([CRUISE_NAME_FY]) does not match the truncated Cruise''s Fiscal Year value ([CRUISE_FISC_YEAR_TRUNC])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_FY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg''s start date');</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>

--- a/docs/QA_QC Validation Criteria.xlsx
+++ b/docs/QA_QC Validation Criteria.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="91">
   <si>
     <t>Error Severity Type 
 (DVM_ERROR_TYPES
@@ -40,10 +40,6 @@
   <si>
     <t>QC Criteria/Error Type Name 
 (DVM_ERROR_TYPES.ERR_TYPE_NAME)</t>
-  </si>
-  <si>
-    <t>Required 
-Field?</t>
   </si>
   <si>
     <t>Validation Scope 
@@ -292,6 +288,18 @@
   </si>
   <si>
     <t>ERROR</t>
+  </si>
+  <si>
+    <t>Application Link Formula</t>
+  </si>
+  <si>
+    <t>f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]</t>
+  </si>
+  <si>
+    <t>f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],</t>
+  </si>
+  <si>
+    <t>f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID1],,[CRUISE_ID]</t>
   </si>
 </sst>
 </file>
@@ -748,8 +756,8 @@
   <dimension ref="A1:W888"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -761,6 +769,7 @@
     <col min="5" max="5" width="77.42578125" customWidth="1"/>
     <col min="6" max="6" width="27.42578125" customWidth="1"/>
     <col min="7" max="7" width="66.7109375" customWidth="1"/>
+    <col min="8" max="8" width="143" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" customWidth="1"/>
     <col min="11" max="11" width="24.28515625" customWidth="1"/>
@@ -775,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -787,25 +796,25 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="M1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -820,37 +829,39 @@
     </row>
     <row r="2" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>81</v>
+      <c r="F2" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="I2" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="10" t="str">
-        <f t="shared" ref="J2:J16" si="0">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F2, "'", "''"), "', '", SUBSTITUTE(E2, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B2, "'), '", D2, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A2, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I2, "'), 'Y', '", SUBSTITUTE(G2, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Unusually High Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an unusually high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 120 days');</v>
+        <f t="shared" ref="J2:J18" si="0">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('", SUBSTITUTE(F2, "'", "''"), "', '", SUBSTITUTE(E2, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B2, "'), '", D2, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A2, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I2, "'), 'Y', '", SUBSTITUTE(G2, "'", "''"), "', '", SUBSTITUTE(H2, "'", "''"), "');")</f>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Copied Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has "(copy)" in the Cruise Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7" t="str">
-        <f>IF(A2 = "WARN", "Warning", "Error")</f>
-        <v>Warning</v>
+        <f t="shared" ref="M2:M18" si="1">IF(A2 = "WARN", "Warning", "Error")</f>
+        <v>Error</v>
       </c>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -865,37 +876,39 @@
     </row>
     <row r="3" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="I3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Unusually High Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is unusually long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 160 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid number ( &gt; 240) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 240 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7" t="str">
-        <f t="shared" ref="M3:M18" si="1">IF(A3 = "WARN", "Warning", "Error")</f>
-        <v>Warning</v>
+        <f t="shared" si="1"/>
+        <v>Error</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -910,31 +923,33 @@
     </row>
     <row r="4" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>15</v>
+      <c r="F4" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="I4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has "(copy)" in the Cruise Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid length ( &gt; 280) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 280 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -953,37 +968,39 @@
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>87</v>
+    <row r="5" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>49</v>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>54</v>
+      <c r="F5" s="14" t="s">
+        <v>74</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>43</v>
+      <c r="G5" s="6" t="s">
+        <v>78</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="I5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid number ( &gt; 240) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 240 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="str">
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Error</v>
       </c>
@@ -998,37 +1015,39 @@
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
     </row>
-    <row r="6" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>87</v>
+    <row r="6" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7" t="s">
-        <v>51</v>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>55</v>
+      <c r="F6" s="11" t="s">
+        <v>75</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>45</v>
+      <c r="G6" s="6" t="s">
+        <v>77</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="I6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an invalid length ( &gt; 280) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'ERR_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 280 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Mismatched Cruise Name and Fiscal Year', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value ([CRUISE_NAME_FY]) does not match the truncated Cruise''s Fiscal Year value ([CRUISE_FISC_YEAR_TRUNC])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_FY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg''s start date', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="str">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>Error</v>
       </c>
@@ -1045,31 +1064,33 @@
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>65</v>
+      <c r="H7" s="7" t="s">
+        <v>89</v>
       </c>
-      <c r="H7" s="5"/>
       <c r="I7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Missing Cruise Primary Survey Category', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) does not have at least one Primary Survey Category defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_PRIM_SVY_CAT_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise does not have a Primary Survey Category defined for it');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Missing Cruise Primary Survey Category', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) does not have at least one Primary Survey Category defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_PRIM_SVY_CAT_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Cruise does not have a Primary Survey Category defined for it', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -1090,33 +1111,35 @@
     </row>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>5</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>28</v>
+      <c r="G8" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
+      <c r="H8" s="7" t="s">
+        <v>89</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Missing Standard Survey Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) does not have a Standard Survey Name defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_STD_SVY_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Both the Cruise Standard Survey Name fields were not populated, one or the other must be specified');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Missing Standard Survey Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) does not have a Standard Survey Name defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'MISS_STD_SVY_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Both the Cruise Standard Survey Name fields were not populated, one or the other must be specified', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
       <c r="K8" s="10" t="str">
         <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B8, "'", "''"), "', 'Y', ", C8, ");")</f>
@@ -1138,44 +1161,41 @@
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
     </row>
-    <row r="9" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
-      <c r="C9" s="7">
-        <v>15</v>
-      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>17</v>
+      <c r="F9" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="I9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Alias Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_ALIAS_V'), 'INV_LEG_ALIAS_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Alias Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Cruise Days at Sea', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) has an unusually high number ( &gt; 120) of Days at Sea ([CRUISE_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (DAS based on start and end dates) &gt; 120 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
-      <c r="K9" s="10" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B9, "'", "''"), "', 'Y', ", C9, ");")</f>
-        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_ALIAS_V', 'Y', 15);</v>
-      </c>
+      <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Error</v>
+        <v>Warning</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1188,44 +1208,41 @@
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
     </row>
-    <row r="10" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
-      <c r="C10" s="7">
-        <v>20</v>
-      </c>
+      <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
+      <c r="F10" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>89</v>
+      </c>
       <c r="I10" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Cruise Leg Overlap', 'There are two legs for the same Cruise ([CRUISE_NAME1]) whose leg dates overlap; Cruise Leg 1: (Leg Name: [LEG_NAME1], Vessel: [VESSEL_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Leg Name: [LEG_NAME2], Vessel: [VESSEL_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'CRUISE_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same cruise have overlapping start/end dates, two legs for the same cruise cannot occur concurrently');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Cruise Length', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) and number of Legs ([NUM_LEGS]) is unusually long ( &gt; 160) days based on the date range ([CRUISE_LEN_DAYS] days) ', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'WARN_CRUISE_DATE_RNG_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Cruise is too long (based on the cruise start and end dates even if the leg DAS is not over the threshold) &gt; 160 days', 'f?p=[APP_ID]:220:[APP_SESSION]::NO::P220_CRUISE_ID,P220_CRUISE_ID_COPY:[CRUISE_ID],');</v>
       </c>
-      <c r="K10" s="10" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B10, "'", "''"), "', 'Y', ", C10, ");")</f>
-        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_OVERLAP_V', 'Y', 20);</v>
-      </c>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Error</v>
+        <v>Warning</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1238,35 +1255,42 @@
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
     </row>
-    <row r="11" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7">
+        <v>15</v>
+      </c>
       <c r="D11" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Vessel Leg Overlap', 'There are two legs for the same Vessel ([VESSEL_NAME1]) whose leg dates overlap; Leg 1: (Cruise: [CRUISE_NAME1], Leg Name: [LEG_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Cruise: [CRUISE_NAME2], Leg Name: [LEG_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'VESSEL_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same vessel have overlapping start/end dates, two legs for the same vessel cannot occur concurrently');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Copied Leg Alias Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has a Leg alias name ([LEG_ALIAS_NAME]) that contains "(copy)", this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_ALIAS_V'), 'INV_LEG_ALIAS_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Alias Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
-      <c r="K11" s="7"/>
+      <c r="K11" s="10" t="str">
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B11, "'", "''"), "', 'Y', ", C11, ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_ALIAS_V', 'Y', 15);</v>
+      </c>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="str">
         <f t="shared" si="1"/>
@@ -1283,39 +1307,46 @@
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
     </row>
-    <row r="12" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7">
+        <v>20</v>
+      </c>
       <c r="D12" s="7" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>83</v>
+      <c r="F12" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="I12" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Unusually High Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an unusually high number ( &gt; 30) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'WARN_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 30 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Cruise Leg Overlap', 'There are two legs for the same Cruise ([CRUISE_NAME1]) whose leg dates overlap; Cruise Leg 1: (Leg Name: [LEG_NAME1], Vessel: [VESSEL_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Leg Name: [LEG_NAME2], Vessel: [VESSEL_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'CRUISE_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same cruise have overlapping start/end dates, two legs for the same cruise cannot occur concurrently', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID1],,[CRUISE_ID]');</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="10" t="str">
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B12, "'", "''"), "', 'Y', ", C12, ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_OVERLAP_V', 'Y', 20);</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Warning</v>
+        <v>Error</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1328,40 +1359,37 @@
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
     </row>
-    <row r="13" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" s="9" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="I13" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Copied Leg Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has "(copy)" in the Leg Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Vessel Leg Overlap', 'There are two legs for the same Vessel ([VESSEL_NAME1]) whose leg dates overlap; Leg 1: (Cruise: [CRUISE_NAME1], Leg Name: [LEG_NAME1], Start Date: [FORMAT_LEG_START_DATE1], End Date: [FORMAT_LEG_END_DATE1]), Leg 2: (Cruise: [CRUISE_NAME2], Leg Name: [LEG_NAME2], Start Date: [FORMAT_LEG_START_DATE2], End Date: [FORMAT_LEG_END_DATE2])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_OVERLAP_V'), 'VESSEL_OVERLAP_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Two cruise legs that are associated with the same vessel have overlapping start/end dates, two legs for the same vessel cannot occur concurrently', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID1],,[CRUISE_ID]');</v>
       </c>
-      <c r="K13" s="10" t="str">
-        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B13, "'", "''"), "', 'Y', ", C13, ");")</f>
-        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_V', 'Y', 10);</v>
-      </c>
+      <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7" t="str">
         <f t="shared" si="1"/>
@@ -1378,35 +1406,42 @@
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
     </row>
-    <row r="14" spans="1:23" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7">
+        <v>10</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Dates', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that are invalid, the Start Date occurs after the End Date', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_DATES_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg''s Start Date occurs after the End Date');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Copied Leg Name', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has "(copy)" in the Leg Name, this should be renamed', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_NAME_COPY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg Name contains "(copy)" which indicates it was created using the "Deep Copy" feature and should be renamed', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="10" t="str">
+        <f>CONCATENATE("insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('", SUBSTITUTE(B14, "'", "''"), "', 'Y', ", C14, ");")</f>
+        <v>insert into DVM_QC_OBJECTS (OBJECT_NAME, QC_OBJ_ACTIVE_YN, QC_SORT_ORDER) VALUES ('CCD_QC_LEG_V', 'Y', 10);</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7" t="str">
         <f t="shared" si="1"/>
@@ -1423,33 +1458,35 @@
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
     </row>
-    <row r="15" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="13" t="s">
         <v>56</v>
       </c>
+      <c r="F15" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="G15" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'ERR_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 90 days');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Leg Dates', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that are invalid, the Start Date occurs after the End Date', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'INV_LEG_DATES_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg''s Start Date occurs after the End Date', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -1468,39 +1505,41 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>63</v>
+      <c r="F16" s="13" t="s">
+        <v>55</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>66</v>
+      <c r="G16" s="8" t="s">
+        <v>45</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I16" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Missing Leg Gear', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that does not have at least one type of Gear defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'MISS_GEAR_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg does not have any gear defined for it');</v>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Invalid Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an invalid number ( &gt; 90) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'ERR_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 90 days', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Warning</v>
+        <v>Error</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -1513,39 +1552,41 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
-    <row r="17" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>87</v>
+    <row r="17" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
-      <c r="F17" s="14" t="s">
-        <v>75</v>
+      <c r="F17" s="12" t="s">
+        <v>62</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>79</v>
+      <c r="G17" s="5" t="s">
+        <v>65</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I17" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="10" t="str">
-        <f t="shared" ref="J17:J18" si="2">CONCATENATE("INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('", SUBSTITUTE(F17, "'", "''"), "', '", SUBSTITUTE(E17, "'", "''"), "', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = '", B17, "'), '", D17, "', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = '",A17, "'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = '",I17, "'), 'Y', '", SUBSTITUTE(G17, "'", "''"), "');")</f>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Invalid Cruise Name', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has an invalid Cruise Name based on the required naming convention: {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name does not follow the naming convention {SN}-{YR}-{##} where {SN} is a valid abbreviation for a NOAA ship name, {YR} is a two digit year with a leading zero, and {##} is a sequential number with a leading zero');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Missing Leg Gear', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that does not have at least one type of Gear defined for it', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'MISS_GEAR_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The Leg does not have any gear defined for it', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="str">
+      <c r="M17" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Error</v>
+        <v>Warning</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -1558,39 +1599,41 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>87</v>
+    <row r="18" spans="1:23" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>76</v>
+      <c r="F18" s="8" t="s">
+        <v>82</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>78</v>
+      <c r="G18" s="8" t="s">
+        <v>41</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="7" t="s">
+        <v>88</v>
+      </c>
       <c r="I18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC) VALUES ('Mismatched Cruise Name and Fiscal Year', 'The Cruise ([CRUISE_NAME]) with Start Date ([FORMAT_CRUISE_START_DATE]) and End Date ([FORMAT_CRUISE_END_DATE]) has a valid Cruise Name based on the required naming convention ({SN}-{YR}-{##}) but the extracted {YR} value ([CRUISE_NAME_FY]) does not match the truncated Cruise''s Fiscal Year value ([CRUISE_FISC_YEAR_TRUNC])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_CRUISE_V'), 'INV_CRUISE_NAME_FY_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'ERROR'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'The cruise name follows the naming convention {SN}-{YR}-{##} but {YR} does not match the Cruise Fiscal Year based on the first leg''s start date');</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO DVM_ERROR_TYPES (ERR_TYPE_NAME, ERR_TYPE_COMMENT_TEMPLATE, QC_OBJECT_ID, IND_FIELD_NAME, ERR_SEVERITY_ID, DATA_STREAM_ID, ERR_TYPE_ACTIVE_YN, ERR_TYPE_DESC, APP_LINK_TEMPLATE) VALUES ('Unusually High Leg Days at Sea', 'The Cruise ([CRUISE_NAME]) has a Cruise Leg ([LEG_NAME]) on the Vessel ([VESSEL_NAME]) with a Start Date ([FORMAT_LEG_START_DATE]) and End Date ([FORMAT_LEG_END_DATE]) that has an unusually high number ( &gt; 30) of Days at Sea ([LEG_DAS])', (SELECT QC_OBJECT_ID FROM DVM_QC_OBJECTS WHERE OBJECT_NAME = 'CCD_QC_LEG_V'), 'WARN_LEG_DAS_YN', (SELECT ERR_SEVERITY_ID FROM DVM_ERR_SEVERITY WHERE ERR_SEVERITY_CODE = 'WARN'), (SELECT data_stream_id from DVM_data_streams where data_stream_code = 'CCD'), 'Y', 'Leg is too long (DAS based on start and end dates) &gt; 30 days', 'f?p=[APP_ID]:230:[APP_SESSION]::NO::P230_CRUISE_LEG_ID,P230_CRUISE_LEG_ID_COPY,P230_CRUISE_ID:[CRUISE_LEG_ID],,[CRUISE_ID]');</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="5" t="str">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>Error</v>
+        <v>Warning</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
@@ -23354,9 +23397,9 @@
       <c r="W888" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:L16">
-    <sortCondition ref="B2:B16"/>
-    <sortCondition ref="F2:F16"/>
+  <sortState ref="A2:M18">
+    <sortCondition ref="B2:B18"/>
+    <sortCondition ref="F2:F18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/docs/QA_QC Validation Criteria.xlsx
+++ b/docs/QA_QC Validation Criteria.xlsx
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
@@ -512,7 +513,7 @@
     <t>CCD Test Data Stream 2</t>
   </si>
   <si>
-    <t>(Category 3/6) Test Cases for overlapping data streams</t>
+    <t>(Category 3, 6, 7) Test Cases for overlapping data streams</t>
   </si>
 </sst>
 </file>
@@ -708,6 +709,19 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="List of Values"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1006,8 +1020,8 @@
   <dimension ref="A1:X888"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
